--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2221008.473005263</v>
+        <v>2216702.756629193</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9833725.565585533</v>
+        <v>9833725.565585537</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13.6629055242496</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>129.1935566495323</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.8892046551439</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
-        <v>268.2873575894744</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.88545101545</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>27.66451198073719</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>35.36772610325018</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.3898491144619</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>157.9717067882027</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>98.45284414233032</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>45.66054613217651</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>116.4636264596498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>177.6965697803346</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>77.93612009725524</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>23.10998325717172</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>146.9393756113383</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766866</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.683768698139</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C2" t="n">
-        <v>825.7212517577275</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>467.455553150977</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>81.66730055273274</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
         <v>67.86638588177355</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2566.650548947988</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2566.650548947988</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1981.825876242509</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1629.057220972395</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y2" t="n">
-        <v>1194.683768698139</v>
+        <v>865.4521307355029</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>570.6651411204305</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>281.2479710834698</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>281.2479710834698</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.2479710834698</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.120910258947</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1610.120910258947</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
         <v>200.8329293182748</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1352.841401975886</v>
+        <v>1590.992732478547</v>
       </c>
       <c r="C8" t="n">
-        <v>983.8788850354742</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>625.6131864287238</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E8" t="n">
-        <v>597.6692349330297</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2482.349229285934</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2129.580574015819</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2129.580574015819</v>
+        <v>1977.592572542669</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.441242040008</v>
+        <v>1977.592572542669</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>520.6009841418684</v>
       </c>
       <c r="M9" t="n">
-        <v>1646.937527316293</v>
+        <v>1161.146333608973</v>
       </c>
       <c r="N9" t="n">
-        <v>1845.594268968958</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2005.106581637719</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>219.7306631621202</v>
+        <v>651.4366193059393</v>
       </c>
       <c r="C10" t="n">
-        <v>219.7306631621202</v>
+        <v>482.5004363780324</v>
       </c>
       <c r="D10" t="n">
-        <v>219.7306631621202</v>
+        <v>332.3837969656967</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>332.3837969656967</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>332.3837969656967</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>332.3837969656967</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>763.8323214049676</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>509.1478331990808</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>219.7306631621202</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>219.7306631621202</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.7306631621202</v>
+        <v>833.085084136179</v>
       </c>
     </row>
     <row r="11">
@@ -5038,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5518,22 +5518,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,25 +5834,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.8620388433919</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6177,22 +6177,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2267.47159895366</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>264.0500279773688</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>117.1600804794585</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6700,7 +6700,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3260.450525729772</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801865</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.39770338953</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4542.409540669969</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4253.334314014167</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3998.64982580828</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3709.23265577132</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3481.243104873302</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3260.450525729772</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,10 +6946,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>4435.461999481584</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7171,28 +7171,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7259,22 +7259,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961526</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,10 +7426,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558405</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>2646.594662309226</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>2646.594662309226</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>2646.594662309226</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388645</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>73.09871788457454</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>294.7256303393017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>127.2568112467068</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63.36835372228748</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>39.70888054695368</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>139.469330230033</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>70.46607471594996</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>39.70888054695304</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023552</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023552</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.8164023552</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="H2" t="n">
-        <v>585181.2847752548</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="M2" t="n">
-        <v>585181.2847752547</v>
-      </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
@@ -26438,25 +26438,25 @@
         <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682777</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287494.0895893828</v>
+        <v>-287494.0895893825</v>
       </c>
       <c r="C6" t="n">
-        <v>302473.7896251619</v>
+        <v>302473.789625162</v>
       </c>
       <c r="D6" t="n">
-        <v>146669.9835313679</v>
+        <v>146669.983531368</v>
       </c>
       <c r="E6" t="n">
-        <v>-292671.4729961421</v>
+        <v>-293018.8522504987</v>
       </c>
       <c r="F6" t="n">
-        <v>478381.2183846641</v>
+        <v>478033.8391303076</v>
       </c>
       <c r="G6" t="n">
-        <v>478381.2183846648</v>
+        <v>478033.8391303075</v>
       </c>
       <c r="H6" t="n">
-        <v>478381.2183846649</v>
+        <v>478033.8391303078</v>
       </c>
       <c r="I6" t="n">
-        <v>478381.2183846647</v>
+        <v>478033.8391303075</v>
       </c>
       <c r="J6" t="n">
-        <v>301957.9991920716</v>
+        <v>301610.6199377145</v>
       </c>
       <c r="K6" t="n">
-        <v>478381.2183846648</v>
+        <v>478033.8391303074</v>
       </c>
       <c r="L6" t="n">
-        <v>478381.2183846644</v>
+        <v>478033.8391303077</v>
       </c>
       <c r="M6" t="n">
-        <v>354172.7076766062</v>
+        <v>353825.328422249</v>
       </c>
       <c r="N6" t="n">
-        <v>478381.2183846643</v>
+        <v>478033.8391303071</v>
       </c>
       <c r="O6" t="n">
-        <v>478381.2183846648</v>
+        <v>478033.8391303078</v>
       </c>
       <c r="P6" t="n">
-        <v>478381.2183846644</v>
+        <v>478033.8391303077</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,22 +26971,22 @@
         <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>393.2131402174618</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>45.22215615943927</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.24843866868409</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
-        <v>117.9505810665792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>16.63754732114097</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>354.2658580915246</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>334.3633745752189</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,13 +28028,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0.3222475547706551</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28067,19 +28067,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>128.2889478698943</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328822</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32335,7 +32335,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>175.960367665998</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>391.9250669264611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33979,25 +33979,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>614.7544723218302</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>271.1474903386687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>273.7620932913065</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>404.5131328921288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>191.3582339884378</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>257.9506595121309</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>128.5512458942243</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2216702.756629193</v>
+        <v>2218463.286931977</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9833725.565585537</v>
+        <v>9833725.565585535</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>270.6226856612334</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>129.1935566495323</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>338.2584895448973</v>
       </c>
       <c r="X5" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>342.6298526123287</v>
       </c>
       <c r="X8" t="n">
-        <v>35.36772610325018</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.3898491144619</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>31.97811112547171</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>25.52471385612597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>151.8518831495024</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>77.93612009725524</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960838</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>108.9065924712593</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>51.50556704456774</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3748,13 +3748,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>21.69718571885219</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>478.8522906713811</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>478.8522906713811</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>898.729014069748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>480.7652059679349</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2566.650548947988</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2566.650548947988</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2312.888763586079</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1981.825876242509</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1629.057220972395</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1255.591462711315</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>865.4521307355029</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="5">
@@ -4555,31 +4555,31 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4606,13 +4606,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4643,13 +4643,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598713</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4792,34 +4792,34 @@
         <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>66.99035954353292</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>75.17723181374774</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>192.4307036906654</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>745.2439619368646</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1376.961772920176</v>
       </c>
       <c r="N8" t="n">
         <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2551.4306457471</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4840,10 +4840,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2351.058330803749</v>
       </c>
       <c r="X8" t="n">
         <v>1977.592572542669</v>
@@ -4874,34 +4874,34 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
         <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>520.6009841418684</v>
+        <v>721.9812674157049</v>
       </c>
       <c r="M9" t="n">
-        <v>1161.146333608973</v>
+        <v>1362.52661688281</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>2030.071016909819</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>651.4366193059393</v>
+        <v>872.2291984494694</v>
       </c>
       <c r="C10" t="n">
-        <v>482.5004363780324</v>
+        <v>703.2930155215626</v>
       </c>
       <c r="D10" t="n">
-        <v>332.3837969656967</v>
+        <v>553.1763761092268</v>
       </c>
       <c r="E10" t="n">
-        <v>332.3837969656967</v>
+        <v>405.2632825268337</v>
       </c>
       <c r="F10" t="n">
-        <v>332.3837969656967</v>
+        <v>258.3733350289233</v>
       </c>
       <c r="G10" t="n">
-        <v>332.3837969656967</v>
+        <v>258.3733350289233</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>104.1186919286884</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972705</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -5007,7 +5007,7 @@
         <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.085084136179</v>
+        <v>1053.877663279709</v>
       </c>
     </row>
     <row r="11">
@@ -5032,16 +5032,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5050,16 +5050,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768874</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>266.4891497944943</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>119.599202296584</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,22 +5597,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2517.442480416598</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5843,10 +5843,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6074,16 +6074,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,19 +6302,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.7774158311365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2185.384895601574</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1896.309668945771</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1641.625180739884</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>903.4258806613763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
         <v>2001.151557821488</v>
@@ -6615,7 +6615,7 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,13 +6712,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="38">
@@ -7171,28 +7171,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,7 +7210,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7256,22 +7256,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327652</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048583</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578601</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2394.937258282718</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2212.082423937622</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1992.480958960563</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="41">
@@ -7396,10 +7396,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>486.4214942667323</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>339.531546768822</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>35.04072454780332</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>203.41442754933</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>73.09871788457454</v>
+        <v>473.6238973478235</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>73.85777223953474</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>59.21924749803978</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.5874149221285734</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>39.70888054695304</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>14.86967966555392</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>143.8269525734167</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>832204.8164023551</v>
+        <v>832204.816402355</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>832204.8164023552</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>832204.816402355</v>
+        <v>832204.8164023551</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516057</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="G2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="H2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752547</v>
       </c>
-      <c r="I2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="K2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="L2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="N2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="O2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26435,31 +26435,31 @@
         <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682729</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
+        <v>5677.536566682721</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="O4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-287494.0895893825</v>
       </c>
       <c r="C6" t="n">
-        <v>302473.789625162</v>
+        <v>302473.7896251618</v>
       </c>
       <c r="D6" t="n">
-        <v>146669.983531368</v>
+        <v>146669.9835313673</v>
       </c>
       <c r="E6" t="n">
-        <v>-293018.8522504987</v>
+        <v>-292706.2109215774</v>
       </c>
       <c r="F6" t="n">
-        <v>478033.8391303076</v>
+        <v>478346.4804592287</v>
       </c>
       <c r="G6" t="n">
-        <v>478033.8391303075</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="H6" t="n">
-        <v>478033.8391303078</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="I6" t="n">
-        <v>478033.8391303075</v>
+        <v>478346.4804592289</v>
       </c>
       <c r="J6" t="n">
-        <v>301610.6199377145</v>
+        <v>301923.261266636</v>
       </c>
       <c r="K6" t="n">
-        <v>478033.8391303074</v>
+        <v>478346.4804592291</v>
       </c>
       <c r="L6" t="n">
-        <v>478033.8391303077</v>
+        <v>478346.4804592291</v>
       </c>
       <c r="M6" t="n">
-        <v>353825.328422249</v>
+        <v>354137.9697511703</v>
       </c>
       <c r="N6" t="n">
-        <v>478033.8391303071</v>
+        <v>478346.4804592286</v>
       </c>
       <c r="O6" t="n">
-        <v>478033.8391303078</v>
+        <v>478346.4804592286</v>
       </c>
       <c r="P6" t="n">
-        <v>478033.8391303077</v>
+        <v>478346.4804592285</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26983,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>45.22215615943927</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>17.40933785016563</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>10.98247917251575</v>
       </c>
       <c r="X5" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592673</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27912,13 +27912,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>6.611116105084307</v>
       </c>
       <c r="X8" t="n">
-        <v>334.3633745752189</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28019,22 +28019,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3222475547706551</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>91.28844675394527</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>175.960367665998</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>467.1465236515248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,13 +33268,13 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33976,25 +33976,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>614.7544723218302</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164387</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164387</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>118.4378503807249</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35257,22 +35257,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>342.030183120738</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>273.7620932913065</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>328.5921438716506</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37624,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>476.2000925419561</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365645</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365645</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
